--- a/biology/Botanique/Rindera/Rindera.xlsx
+++ b/biology/Botanique/Rindera/Rindera.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Rindera est un genre de plantes dicotylédones de la famille des Boraginaceae, sous-famille des Boraginoideae, originaire d'Eurasie, qui comprend une trentaine d'espèces.
 </t>
@@ -511,9 +523,11 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'aire de répartition de ce genre de plantes s'étend principalement en Eurasie : Europe orientale  (Bulgarie, Russie, Grèce, Roumanie, Ukraine, ex-Yougoslavie), Moyen-Orient (Iran, Irak, Liban, Syrie, Turquie,), Transcaucasie, Asie centrale (Afghanistan, Kazakhstan, Kirghizistan, Ouzbékistan, Tadjikistan, Turkménistan), Chine (Xinjiang), Extrême-Orient (Altaï, Krasnoïarsk, Mongolie), ainsi qu'en Afrique du Nord (Algérie)[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'aire de répartition de ce genre de plantes s'étend principalement en Eurasie : Europe orientale  (Bulgarie, Russie, Grèce, Roumanie, Ukraine, ex-Yougoslavie), Moyen-Orient (Iran, Irak, Liban, Syrie, Turquie,), Transcaucasie, Asie centrale (Afghanistan, Kazakhstan, Kirghizistan, Ouzbékistan, Tadjikistan, Turkménistan), Chine (Xinjiang), Extrême-Orient (Altaï, Krasnoïarsk, Mongolie), ainsi qu'en Afrique du Nord (Algérie).
 </t>
         </is>
       </c>
@@ -542,16 +556,87 @@
           <t>Taxinomie</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Ce genre a été décrit pour la première fois par Peter Simon Pallas et publié en 1771 dans Reise durch Verschiedene Provinzen des Russischen Reichs. St. Petersburg[2].
-Synonymes
-Selon Plants of the World Online (POWO)[1] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ce genre a été décrit pour la première fois par Peter Simon Pallas et publié en 1771 dans Reise durch Verschiedene Provinzen des Russischen Reichs. St. Petersburg.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Rindera</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Rindera</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Taxinomie</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Synonymes</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Selon Plants of the World Online (POWO) :
 Bilegnum Brand
 Cyphomattia Boiss.
-Mattia Schult.
-Liste des espèces
-Rindera alaica
+Mattia Schult.</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Rindera</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Rindera</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Taxinomie</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Liste des espèces</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Rindera alaica
 Rindera albida
 Rindera austroechinata
 Rindera bungei
